--- a/output/MILES_30665589000108.xlsx
+++ b/output/MILES_30665589000108.xlsx
@@ -713,10 +713,10 @@
         <v>44165</v>
       </c>
       <c r="B30">
-        <v>0.3544614800000001</v>
+        <v>0.3526667999999999</v>
       </c>
       <c r="C30">
-        <v>0.03047625280394328</v>
+        <v>0.02911085766447985</v>
       </c>
     </row>
   </sheetData>

--- a/output/MILES_30665589000108.xlsx
+++ b/output/MILES_30665589000108.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MILES ACER A LONG BIAS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,337 +383,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43312</v>
       </c>
       <c r="B2">
-        <v>0.01575261999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43343</v>
       </c>
       <c r="B3">
-        <v>-0.00516475999999999</v>
-      </c>
-      <c r="C3">
         <v>-0.02059298650886077</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43373</v>
       </c>
       <c r="B4">
-        <v>-0.01859496999999999</v>
-      </c>
-      <c r="C4">
         <v>-0.01349993391870596</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43404</v>
       </c>
       <c r="B5">
-        <v>0.07377827000000003</v>
-      </c>
-      <c r="C5">
         <v>0.09412346297022745</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43434</v>
       </c>
       <c r="B6">
-        <v>0.09073667000000007</v>
-      </c>
-      <c r="C6">
         <v>0.01579320468088818</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43465</v>
       </c>
       <c r="B7">
-        <v>0.1227190600000001</v>
-      </c>
-      <c r="C7">
         <v>0.02932182522111404</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43496</v>
       </c>
       <c r="B8">
-        <v>0.2019055599999999</v>
-      </c>
-      <c r="C8">
         <v>0.07053100176280958</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43524</v>
       </c>
       <c r="B9">
-        <v>0.1648644699999999</v>
-      </c>
-      <c r="C9">
         <v>-0.03081863603326707</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43555</v>
       </c>
       <c r="B10">
-        <v>0.1723617900000001</v>
-      </c>
-      <c r="C10">
         <v>0.00643621656689386</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43585</v>
       </c>
       <c r="B11">
-        <v>0.21001625</v>
-      </c>
-      <c r="C11">
         <v>0.03211846404513063</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43616</v>
       </c>
       <c r="B12">
-        <v>0.20772675</v>
-      </c>
-      <c r="C12">
         <v>-0.001892123349583108</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43646</v>
       </c>
       <c r="B13">
-        <v>0.2425896999999999</v>
-      </c>
-      <c r="C13">
         <v>0.02886658757868865</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43677</v>
       </c>
       <c r="B14">
-        <v>0.29189273</v>
-      </c>
-      <c r="C14">
         <v>0.0396776425878953</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43708</v>
       </c>
       <c r="B15">
-        <v>0.30724219</v>
-      </c>
-      <c r="C15">
         <v>0.01188137346356921</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43738</v>
       </c>
       <c r="B16">
-        <v>0.30118135</v>
-      </c>
-      <c r="C16">
         <v>-0.004636355869144571</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43769</v>
       </c>
       <c r="B17">
-        <v>0.3059937800000001</v>
-      </c>
-      <c r="C17">
         <v>0.003698508282492741</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43799</v>
       </c>
       <c r="B18">
-        <v>0.3174631699999999</v>
-      </c>
-      <c r="C18">
         <v>0.008782116864292977</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43830</v>
       </c>
       <c r="B19">
-        <v>0.4052503199999999</v>
-      </c>
-      <c r="C19">
         <v>0.06663347560600119</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43861</v>
       </c>
       <c r="B20">
-        <v>0.42768049</v>
-      </c>
-      <c r="C20">
         <v>0.01596169001406089</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43890</v>
       </c>
       <c r="B21">
-        <v>0.33288473</v>
-      </c>
-      <c r="C21">
         <v>-0.06639844185305077</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43921</v>
       </c>
       <c r="B22">
-        <v>0.02580044999999997</v>
-      </c>
-      <c r="C22">
         <v>-0.2303907255355833</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43951</v>
       </c>
       <c r="B23">
-        <v>0.1222191699999999</v>
-      </c>
-      <c r="C23">
         <v>0.09399364174581915</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43982</v>
       </c>
       <c r="B24">
-        <v>0.27066576</v>
-      </c>
-      <c r="C24">
         <v>0.1322794993780048</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44012</v>
       </c>
       <c r="B25">
-        <v>0.34166648</v>
-      </c>
-      <c r="C25">
         <v>0.05587678698448606</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44043</v>
       </c>
       <c r="B26">
-        <v>0.45150932</v>
-      </c>
-      <c r="C26">
         <v>0.08187045114222435</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44074</v>
       </c>
       <c r="B27">
-        <v>0.4073692900000001</v>
-      </c>
-      <c r="C27">
         <v>-0.03040974618061698</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
       <c r="B28">
-        <v>0.3327323900000001</v>
-      </c>
-      <c r="C28">
         <v>-0.05303291789179232</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44135</v>
       </c>
       <c r="B29">
-        <v>0.3144033900000001</v>
-      </c>
-      <c r="C29">
         <v>-0.01375294855706177</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44165</v>
       </c>
       <c r="B30">
-        <v>0.3526667999999999</v>
-      </c>
-      <c r="C30">
-        <v>0.02911085766447985</v>
+        <v>0.01527362920145836</v>
       </c>
     </row>
   </sheetData>
